--- a/_DS-PT-2 _ ISA (1).xlsx
+++ b/_DS-PT-2 _ ISA (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compact\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682216B9-69DF-4550-9CF3-D29AC39AC26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DD02DF-DDA3-442A-B045-E0DFB678A8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="609">
   <si>
     <t>Week   = 3 weeks</t>
   </si>
@@ -1859,6 +1859,33 @@
   </si>
   <si>
     <t>it is a special variable which hold more than one value at a time.</t>
+  </si>
+  <si>
+    <t>Numeric include integers (!), floating point and complex numbers eg.(3+4i)(5.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(a) :- This function returns the value of e raised to the power a (e**a)   log(a, b) :- This function returns the logarithmic value of a with base b. </t>
+  </si>
+  <si>
+    <t>Addition, subtraction, multiplication,Division,Exponent,Floor Division</t>
+  </si>
+  <si>
+    <t>a=10 -assignment operator,a+=5 addition operator,-= subtraction operator,*=multiplication,/=division,%remainder,**=Exponent, //+Floor division</t>
+  </si>
+  <si>
+    <t>a=25  b=38   (a&gt;b)#false,(a&lt;b)=,(a==b),(a!=b),(a&gt;=b),(a&lt;=b)</t>
+  </si>
+  <si>
+    <t>binary  and &amp; - sets each bit to 1 if both bits are 1,| binary or-sets each bit to 1 if one of two bits is 1, ^ binary xor - sets each bit to 1 if only one of two bits is 1, - binary ones complement- inverts all of the bits,&lt;&lt; binary left shift -shift left by pushing zeros in from the right and let the leftmost bits fall off,&gt;&gt; binary right shift _ shift right by pushing copies of the leftmost bit in from the left and let the rightmost bits fall off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a=true b=false  (a and b)# false  , (a or b)#true,  (not a) # False</t>
+  </si>
+  <si>
+    <t>a=10,b=20,c=a,  (a is not b)# true , (a is c) # True</t>
+  </si>
+  <si>
+    <t>if statements are great for evaluating a condition and taking certain action(s) based on the result</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2214,6 +2241,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2223,12 +2253,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2449,8 +2473,8 @@
   </sheetPr>
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2476,7 +2500,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2488,7 +2512,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="45">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
       <c r="B2" s="4">
@@ -2509,7 +2533,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2524,7 +2548,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2539,7 +2563,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2554,7 +2578,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2568,8 +2592,8 @@
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="46"/>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="47"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2578,25 +2602,29 @@
       <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="30" t="s">
+        <v>600</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="46"/>
+    <row r="8" spans="1:9" ht="60">
+      <c r="A8" s="47"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>601</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2609,7 +2637,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -2626,7 +2654,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="30">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2641,7 +2669,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="45">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2656,7 +2684,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2671,7 +2699,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2686,7 +2714,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2700,8 +2728,8 @@
       <c r="H15" s="5"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="46"/>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="47"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -2712,65 +2740,75 @@
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>602</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="47"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:9" ht="60">
+      <c r="A18" s="47"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>603</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="46"/>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="47"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="46"/>
+    <row r="20" spans="1:9" ht="135">
+      <c r="A20" s="47"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>605</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2782,21 +2820,23 @@
       <c r="H21" s="5"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="47"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>607</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
-      <c r="A23" s="46"/>
+    <row r="23" spans="1:9" ht="45">
+      <c r="A23" s="47"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
@@ -2805,13 +2845,15 @@
       <c r="E23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="15">
-      <c r="A24" s="46"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2824,7 +2866,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="15">
-      <c r="A25" s="46"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2837,7 +2879,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2850,7 +2892,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -2865,7 +2907,7 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="15">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2878,7 +2920,7 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2891,7 +2933,7 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="15">
-      <c r="A30" s="46"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2904,7 +2946,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="15">
-      <c r="A31" s="46"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2917,7 +2959,7 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="15">
-      <c r="A32" s="46"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="4">
         <v>3</v>
       </c>
@@ -2934,7 +2976,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="15">
-      <c r="A33" s="46"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
@@ -2949,7 +2991,7 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="15">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2962,7 +3004,7 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="15">
-      <c r="A35" s="46"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2975,7 +3017,7 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="15">
-      <c r="A36" s="46"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2988,7 +3030,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="15">
-      <c r="A37" s="46"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
@@ -3003,7 +3045,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" ht="15">
-      <c r="A38" s="46"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3016,7 +3058,7 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15">
-      <c r="A39" s="46"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3029,7 +3071,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="15">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3042,7 +3084,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="15">
-      <c r="A41" s="46"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
@@ -3057,7 +3099,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="15">
-      <c r="A42" s="46"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3070,7 +3112,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" ht="15">
-      <c r="A43" s="46"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3083,7 +3125,7 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="15">
-      <c r="A44" s="47"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -4400,12 +4442,12 @@
       <c r="I138" s="4"/>
     </row>
     <row r="139" spans="1:9" ht="12.75">
-      <c r="A139" s="48" t="s">
+      <c r="A139" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="B139" s="49"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="49"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
